--- a/membersDetail.xlsx
+++ b/membersDetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -473,6 +473,273 @@
   </si>
   <si>
     <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>AFGM-032</t>
+  </si>
+  <si>
+    <t>Alson</t>
+  </si>
+  <si>
+    <t>1980-12-16</t>
+  </si>
+  <si>
+    <t>09190025956</t>
+  </si>
+  <si>
+    <t>AFGM-033</t>
+  </si>
+  <si>
+    <t>Czarina Angela</t>
+  </si>
+  <si>
+    <t>5A Rose St. Sitio Halang Brgy. San Isisdro, Cainta Rizal</t>
+  </si>
+  <si>
+    <t>09236749793</t>
+  </si>
+  <si>
+    <t>AFGM-034</t>
+  </si>
+  <si>
+    <t>Michaellla Gabrielle</t>
+  </si>
+  <si>
+    <t>5B Rose Sitio Halang, Brgy. San Isidro, Cainta Rizal</t>
+  </si>
+  <si>
+    <t>2010-07-05</t>
+  </si>
+  <si>
+    <t>AFGM-035</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Villa II Brgy. Sta. Cruz
+Cogeo antipolo</t>
+  </si>
+  <si>
+    <t>1957-04-07</t>
+  </si>
+  <si>
+    <t>09676618796</t>
+  </si>
+  <si>
+    <t>AFGM-036</t>
+  </si>
+  <si>
+    <t>Pamintutan</t>
+  </si>
+  <si>
+    <t>Marilyn</t>
+  </si>
+  <si>
+    <t>Block ii Lot 4 Sto. Nino
+Maria Corazon Sub</t>
+  </si>
+  <si>
+    <t>1953-02-27</t>
+  </si>
+  <si>
+    <t>0906-376-9648</t>
+  </si>
+  <si>
+    <t>AFGM-037</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Rosalia</t>
+  </si>
+  <si>
+    <t>Sitio Roxas Brgy. Mambugan Antipolo City</t>
+  </si>
+  <si>
+    <t>1955-07-12</t>
+  </si>
+  <si>
+    <t>AFGM-038</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Sitio  San Rafael Mambugan Antipolo City</t>
+  </si>
+  <si>
+    <t>2012-10-02</t>
+  </si>
+  <si>
+    <t>AFGM-039</t>
+  </si>
+  <si>
+    <t>2012-01-18</t>
+  </si>
+  <si>
+    <t>AFGM-040</t>
+  </si>
+  <si>
+    <t>Loayon</t>
+  </si>
+  <si>
+    <t>John Koby</t>
+  </si>
+  <si>
+    <t>Ruhat 3, Brgy. Mambugan ANtipolo City</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>AFGM-041</t>
+  </si>
+  <si>
+    <t>Baes</t>
+  </si>
+  <si>
+    <t>Nelia</t>
+  </si>
+  <si>
+    <t>Sito San Rafael Mambugan Antipolo</t>
+  </si>
+  <si>
+    <t>1993-03-04</t>
+  </si>
+  <si>
+    <t>AFGM-042</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Ruhat 3 Mambugan, Antipolo City</t>
+  </si>
+  <si>
+    <t>2011-06-26</t>
+  </si>
+  <si>
+    <t>AFGM-043</t>
+  </si>
+  <si>
+    <t>Vilma</t>
+  </si>
+  <si>
+    <t>1968-06-26</t>
+  </si>
+  <si>
+    <t>AFGM-044</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Sitio Maligaya 2, Mambugan Antipolo City</t>
+  </si>
+  <si>
+    <t>1991-05-01</t>
+  </si>
+  <si>
+    <t>AFGM-045</t>
+  </si>
+  <si>
+    <t>2007-06-05</t>
+  </si>
+  <si>
+    <t>AFGM-046</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>2005-06-08</t>
+  </si>
+  <si>
+    <t>AFGM-047</t>
+  </si>
+  <si>
+    <t>Yehlen</t>
+  </si>
+  <si>
+    <t>1972-06-08</t>
+  </si>
+  <si>
+    <t>AFGM-048</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>2004-06-16</t>
+  </si>
+  <si>
+    <t>AFGM-049</t>
+  </si>
+  <si>
+    <t>Hotezuela</t>
+  </si>
+  <si>
+    <t>Gracelda</t>
+  </si>
+  <si>
+    <t>Villaleyva II Sta. Cruz 
+City of Antipolo</t>
+  </si>
+  <si>
+    <t>1970-01-12</t>
+  </si>
+  <si>
+    <t>0956-799-2203</t>
+  </si>
+  <si>
+    <t>AFGM-050</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>75 Gertrudes st. Brgy. Mambugan Antipolo city</t>
+  </si>
+  <si>
+    <t>1946-02-21</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>AFGM-051</t>
+  </si>
+  <si>
+    <t>Gorgonia</t>
+  </si>
+  <si>
+    <t>95 # Gertrudes St Brgy. Mambugan Antipolo city</t>
+  </si>
+  <si>
+    <t>1951-12-25</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AFGM-052</t>
+  </si>
+  <si>
+    <t>Ruelan</t>
+  </si>
+  <si>
+    <t>Shenna Kee</t>
+  </si>
+  <si>
+    <t>Brgy. Sta. Cruz Villaleyva II Antiplo city</t>
+  </si>
+  <si>
+    <t>2010-09-06</t>
   </si>
 </sst>
 </file>
@@ -804,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1843,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -1597,6 +1864,513 @@
       </c>
       <c r="G33" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <v>66</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45">
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F51">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
